--- a/reports/resnet18_23_no_MMTM/prediction/2/prediction_train_2.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/2/prediction_train_2.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1674,7 +1674,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
